--- a/data/options_chains.xlsx
+++ b/data/options_chains.xlsx
@@ -445,6 +445,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>SOFR</t>
@@ -469,7 +474,7 @@
         <v>0.0153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02400000095367432</v>
+        <v>0.02360000133514404</v>
       </c>
       <c r="D2" t="n">
         <v>742.5</v>
@@ -486,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,34 +578,34 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44763.57130787037</v>
+        <v>44763.83143518519</v>
       </c>
       <c r="C2" t="n">
         <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>108.81</v>
+        <v>133.2</v>
       </c>
       <c r="E2" t="n">
-        <v>104.95</v>
+        <v>131.5</v>
       </c>
       <c r="F2" t="n">
-        <v>106.75</v>
+        <v>133.45</v>
       </c>
       <c r="G2" t="n">
-        <v>29.809998</v>
+        <v>54.199997</v>
       </c>
       <c r="H2" t="n">
-        <v>37.734173</v>
+        <v>68.60759</v>
       </c>
       <c r="I2" t="n">
-        <v>51</v>
+        <v>737</v>
       </c>
       <c r="J2" t="n">
         <v>5577</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5554854022216797</v>
+        <v>0.6656832748413087</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -619,38 +624,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00730000</t>
+          <t>TSLA220819C00750000</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44763.57413194444</v>
+        <v>44763.83194444444</v>
       </c>
       <c r="C3" t="n">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="D3" t="n">
-        <v>83.89</v>
+        <v>93.58</v>
       </c>
       <c r="E3" t="n">
-        <v>83.75</v>
+        <v>93.45</v>
       </c>
       <c r="F3" t="n">
-        <v>85.95</v>
+        <v>95.2</v>
       </c>
       <c r="G3" t="n">
-        <v>22.18</v>
+        <v>42.27</v>
       </c>
       <c r="H3" t="n">
-        <v>35.942314</v>
+        <v>82.38160000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>227</v>
+        <v>808</v>
       </c>
       <c r="J3" t="n">
-        <v>3795</v>
+        <v>7817</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5591779922485353</v>
+        <v>0.6248816809082032</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -669,38 +674,38 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00732500</t>
+          <t>TSLA220819C00770000</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44762.82850694445</v>
+        <v>44763.82990740741</v>
       </c>
       <c r="C4" t="n">
-        <v>732.5</v>
+        <v>770</v>
       </c>
       <c r="D4" t="n">
-        <v>61.36</v>
+        <v>82.06</v>
       </c>
       <c r="E4" t="n">
-        <v>80.25</v>
+        <v>80.3</v>
       </c>
       <c r="F4" t="n">
-        <v>82.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40.159996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.847244</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>505</v>
       </c>
       <c r="J4" t="n">
-        <v>114</v>
+        <v>1310</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5354355538940431</v>
+        <v>0.6131325308227541</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -719,38 +724,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00750000</t>
+          <t>TSLA220819C00775000</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44763.57376157407</v>
+        <v>44763.83224537037</v>
       </c>
       <c r="C5" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="D5" t="n">
-        <v>70.29000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E5" t="n">
-        <v>67.75</v>
+        <v>77.05</v>
       </c>
       <c r="F5" t="n">
-        <v>68.40000000000001</v>
+        <v>78.45</v>
       </c>
       <c r="G5" t="n">
-        <v>18.98</v>
+        <v>36.83</v>
       </c>
       <c r="H5" t="n">
-        <v>36.99084</v>
+        <v>92.144104</v>
       </c>
       <c r="I5" t="n">
-        <v>247</v>
+        <v>678</v>
       </c>
       <c r="J5" t="n">
-        <v>7817</v>
+        <v>435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5088397505187989</v>
+        <v>0.6100197689819337</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -769,38 +774,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00760000</t>
+          <t>TSLA220819C00780000</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44763.57298611111</v>
+        <v>44763.83305555556</v>
       </c>
       <c r="C6" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>65.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>66.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>18.5</v>
+        <v>36.13</v>
       </c>
       <c r="H6" t="n">
-        <v>40.217392</v>
+        <v>95.02893</v>
       </c>
       <c r="I6" t="n">
-        <v>178</v>
+        <v>615</v>
       </c>
       <c r="J6" t="n">
-        <v>1618</v>
+        <v>817</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5526015199279786</v>
+        <v>0.6073342489624024</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -819,38 +824,38 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00770000</t>
+          <t>TSLA220819C00790000</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44763.57310185185</v>
+        <v>44763.82776620371</v>
       </c>
       <c r="C7" t="n">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D7" t="n">
-        <v>57.4</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>57.5</v>
+        <v>67.95</v>
       </c>
       <c r="F7" t="n">
-        <v>58.2</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5</v>
+        <v>36.260002</v>
       </c>
       <c r="H7" t="n">
-        <v>36.99284</v>
+        <v>106.553055</v>
       </c>
       <c r="I7" t="n">
-        <v>93</v>
+        <v>707</v>
       </c>
       <c r="J7" t="n">
-        <v>1310</v>
+        <v>883</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5242662319946289</v>
+        <v>0.6008188111877444</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -869,38 +874,38 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00775000</t>
+          <t>TSLA220819C00795000</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>44763.57420138889</v>
+        <v>44763.83179398148</v>
       </c>
       <c r="C8" t="n">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="D8" t="n">
-        <v>56.7</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4</v>
+        <v>65.05</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>16.73</v>
+        <v>33.420002</v>
       </c>
       <c r="H8" t="n">
-        <v>41.85639</v>
+        <v>104.04733</v>
       </c>
       <c r="I8" t="n">
-        <v>216</v>
+        <v>608</v>
       </c>
       <c r="J8" t="n">
-        <v>435</v>
+        <v>745</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5300339965820313</v>
+        <v>0.5986673434448243</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -919,38 +924,38 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00780000</t>
+          <t>TSLA220819C00800000</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>44763.57420138889</v>
+        <v>44763.83295138889</v>
       </c>
       <c r="C9" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4</v>
+        <v>62.85</v>
       </c>
       <c r="E9" t="n">
-        <v>52.7</v>
+        <v>62.25</v>
       </c>
       <c r="F9" t="n">
-        <v>53.4</v>
+        <v>63.55</v>
       </c>
       <c r="G9" t="n">
-        <v>16.380001</v>
+        <v>32.339996</v>
       </c>
       <c r="H9" t="n">
-        <v>43.082592</v>
+        <v>105.99802</v>
       </c>
       <c r="I9" t="n">
-        <v>118</v>
+        <v>3239</v>
       </c>
       <c r="J9" t="n">
-        <v>817</v>
+        <v>4780</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5291337370300293</v>
+        <v>0.5962869961547851</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -969,38 +974,38 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00785000</t>
+          <t>TSLA220819C00810000</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>44763.57305555556</v>
+        <v>44763.8316087963</v>
       </c>
       <c r="C10" t="n">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="D10" t="n">
-        <v>50.13</v>
+        <v>57.8</v>
       </c>
       <c r="E10" t="n">
-        <v>52.25</v>
+        <v>56.85</v>
       </c>
       <c r="F10" t="n">
-        <v>53.05</v>
+        <v>58.15</v>
       </c>
       <c r="G10" t="n">
-        <v>13.68</v>
+        <v>30.48</v>
       </c>
       <c r="H10" t="n">
-        <v>37.530865</v>
+        <v>111.56661</v>
       </c>
       <c r="I10" t="n">
-        <v>51</v>
+        <v>768</v>
       </c>
       <c r="J10" t="n">
-        <v>459</v>
+        <v>1062</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5523726403808593</v>
+        <v>0.5914347497558594</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1019,38 +1024,38 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00800000</t>
+          <t>TSLA220819C00820000</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>44763.57385416667</v>
+        <v>44763.8330787037</v>
       </c>
       <c r="C11" t="n">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4</v>
+        <v>52.55</v>
       </c>
       <c r="E11" t="n">
-        <v>41.7</v>
+        <v>51.8</v>
       </c>
       <c r="F11" t="n">
-        <v>42.15</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
-        <v>13.890001</v>
+        <v>28.15</v>
       </c>
       <c r="H11" t="n">
-        <v>45.526062</v>
+        <v>115.36886</v>
       </c>
       <c r="I11" t="n">
-        <v>621</v>
+        <v>946</v>
       </c>
       <c r="J11" t="n">
-        <v>4780</v>
+        <v>856</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5105792350769043</v>
+        <v>0.5867656069946289</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1069,38 +1074,38 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00810000</t>
+          <t>TSLA220819C00830000</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>44763.57253472223</v>
+        <v>44763.83179398148</v>
       </c>
       <c r="C12" t="n">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="D12" t="n">
-        <v>40.75</v>
+        <v>47.5</v>
       </c>
       <c r="E12" t="n">
-        <v>38.95</v>
+        <v>47.1</v>
       </c>
       <c r="F12" t="n">
-        <v>39.55</v>
+        <v>48.3</v>
       </c>
       <c r="G12" t="n">
-        <v>13.43</v>
+        <v>25.79</v>
       </c>
       <c r="H12" t="n">
-        <v>49.158127</v>
+        <v>118.79319</v>
       </c>
       <c r="I12" t="n">
-        <v>116</v>
+        <v>646</v>
       </c>
       <c r="J12" t="n">
-        <v>1062</v>
+        <v>453</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5278062356567383</v>
+        <v>0.5833476724243164</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1119,38 +1124,38 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00820000</t>
+          <t>TSLA220819C00840000</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>44763.57394675926</v>
+        <v>44763.8321875</v>
       </c>
       <c r="C13" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="D13" t="n">
-        <v>36.6</v>
+        <v>42.5</v>
       </c>
       <c r="E13" t="n">
-        <v>35.6</v>
+        <v>42.7</v>
       </c>
       <c r="F13" t="n">
-        <v>36.05</v>
+        <v>43.75</v>
       </c>
       <c r="G13" t="n">
-        <v>12.199999</v>
+        <v>23.32</v>
       </c>
       <c r="H13" t="n">
-        <v>49.999996</v>
+        <v>121.58498</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>995</v>
       </c>
       <c r="J13" t="n">
-        <v>856</v>
+        <v>750</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5332993447875977</v>
+        <v>0.5793193923950196</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1173,34 +1178,34 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>44763.57399305556</v>
+        <v>44763.83310185185</v>
       </c>
       <c r="C14" t="n">
         <v>850</v>
       </c>
       <c r="D14" t="n">
-        <v>26.31</v>
+        <v>38.95</v>
       </c>
       <c r="E14" t="n">
-        <v>25.8</v>
+        <v>38.5</v>
       </c>
       <c r="F14" t="n">
-        <v>26.2</v>
+        <v>39.55</v>
       </c>
       <c r="G14" t="n">
-        <v>9.289999</v>
+        <v>21.93</v>
       </c>
       <c r="H14" t="n">
-        <v>54.582832</v>
+        <v>128.8484</v>
       </c>
       <c r="I14" t="n">
-        <v>377</v>
+        <v>5937</v>
       </c>
       <c r="J14" t="n">
         <v>3994</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5353134848022462</v>
+        <v>0.5751995605468749</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1219,38 +1224,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00860000</t>
+          <t>TSLA220819C00870000</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>44763.57435185185</v>
+        <v>44763.83268518518</v>
       </c>
       <c r="C15" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="D15" t="n">
-        <v>22.75</v>
+        <v>31.35</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6</v>
+        <v>31.15</v>
       </c>
       <c r="F15" t="n">
-        <v>23.45</v>
+        <v>32.05</v>
       </c>
       <c r="G15" t="n">
-        <v>7.75</v>
+        <v>17.92</v>
       </c>
       <c r="H15" t="n">
-        <v>51.666664</v>
+        <v>133.43262</v>
       </c>
       <c r="I15" t="n">
-        <v>56</v>
+        <v>904</v>
       </c>
       <c r="J15" t="n">
-        <v>7144</v>
+        <v>10350</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5330399479675292</v>
+        <v>0.5686078295898438</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1273,34 +1278,34 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>44763.57387731481</v>
+        <v>44763.83230324074</v>
       </c>
       <c r="C16" t="n">
         <v>880</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>28.01</v>
       </c>
       <c r="E16" t="n">
-        <v>17.4</v>
+        <v>27.9</v>
       </c>
       <c r="F16" t="n">
-        <v>17.75</v>
+        <v>28.75</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2700005</v>
+        <v>16.28</v>
       </c>
       <c r="H16" t="n">
-        <v>53.45269</v>
+        <v>138.78944</v>
       </c>
       <c r="I16" t="n">
-        <v>87</v>
+        <v>600</v>
       </c>
       <c r="J16" t="n">
         <v>5101</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5247545083618165</v>
+        <v>0.5657697232055664</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1319,38 +1324,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00885000</t>
+          <t>TSLA220819C00900000</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>44763.5734375</v>
+        <v>44763.83324074074</v>
       </c>
       <c r="C17" t="n">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="D17" t="n">
-        <v>16.25</v>
+        <v>22.48</v>
       </c>
       <c r="E17" t="n">
-        <v>16.7</v>
+        <v>22.25</v>
       </c>
       <c r="F17" t="n">
-        <v>17.05</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>5.25</v>
+        <v>13.33</v>
       </c>
       <c r="H17" t="n">
-        <v>47.727272</v>
+        <v>145.68306</v>
       </c>
       <c r="I17" t="n">
-        <v>246</v>
+        <v>4846</v>
       </c>
       <c r="J17" t="n">
-        <v>292</v>
+        <v>8001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5296372720336916</v>
+        <v>0.5612836840820312</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1369,38 +1374,38 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00900000</t>
+          <t>TSLA220819C00910000</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>44763.57422453703</v>
+        <v>44763.83295138889</v>
       </c>
       <c r="C18" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D18" t="n">
-        <v>13.82</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>13.3</v>
+        <v>19.8</v>
       </c>
       <c r="F18" t="n">
-        <v>13.6</v>
+        <v>20.5</v>
       </c>
       <c r="G18" t="n">
-        <v>4.67</v>
+        <v>12.05</v>
       </c>
       <c r="H18" t="n">
-        <v>51.038254</v>
+        <v>151.57234</v>
       </c>
       <c r="I18" t="n">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="J18" t="n">
-        <v>8001</v>
+        <v>1411</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5213060565185546</v>
+        <v>0.5593610958862305</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1419,38 +1424,38 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00910000</t>
+          <t>TSLA220819C00920000</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>44763.57362268519</v>
+        <v>44763.83295138889</v>
       </c>
       <c r="C19" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D19" t="n">
-        <v>11.8</v>
+        <v>17.83</v>
       </c>
       <c r="E19" t="n">
-        <v>11.85</v>
+        <v>17.55</v>
       </c>
       <c r="F19" t="n">
-        <v>12.15</v>
+        <v>18.15</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8500004</v>
+        <v>10.74</v>
       </c>
       <c r="H19" t="n">
-        <v>48.427677</v>
+        <v>151.48094</v>
       </c>
       <c r="I19" t="n">
-        <v>85</v>
+        <v>1492</v>
       </c>
       <c r="J19" t="n">
-        <v>1411</v>
+        <v>4244</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5243883010864258</v>
+        <v>0.5568891967773439</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1469,38 +1474,38 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00920000</t>
+          <t>TSLA220819C00950000</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.83180555556</v>
       </c>
       <c r="C20" t="n">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="D20" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>9.800000000000001</v>
+        <v>12.25</v>
       </c>
       <c r="F20" t="n">
-        <v>10.1</v>
+        <v>12.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1099997</v>
+        <v>7.4500003</v>
       </c>
       <c r="H20" t="n">
-        <v>43.864594</v>
+        <v>160.21506</v>
       </c>
       <c r="I20" t="n">
-        <v>132</v>
+        <v>1716</v>
       </c>
       <c r="J20" t="n">
-        <v>4244</v>
+        <v>3042</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5145312219238281</v>
+        <v>0.5541731594848633</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1519,38 +1524,38 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00930000</t>
+          <t>TSLA220819C00960000</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.82814814815</v>
       </c>
       <c r="C21" t="n">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="D21" t="n">
-        <v>8.949999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="F21" t="n">
-        <v>9.75</v>
+        <v>11.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.77</v>
+        <v>7.23</v>
       </c>
       <c r="H21" t="n">
-        <v>44.822006</v>
+        <v>169.32085</v>
       </c>
       <c r="I21" t="n">
-        <v>61</v>
+        <v>620</v>
       </c>
       <c r="J21" t="n">
-        <v>961</v>
+        <v>2683</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5320176193237305</v>
+        <v>0.5539290213012696</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1569,38 +1574,38 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00940000</t>
+          <t>TSLA220819C00970000</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.8331712963</v>
       </c>
       <c r="C22" t="n">
-        <v>940</v>
+        <v>970</v>
       </c>
       <c r="D22" t="n">
-        <v>7.85</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>7.35</v>
+        <v>9.5</v>
       </c>
       <c r="F22" t="n">
-        <v>7.6</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>5.97</v>
       </c>
       <c r="H22" t="n">
-        <v>44.0367</v>
+        <v>163.56163</v>
       </c>
       <c r="I22" t="n">
-        <v>64</v>
+        <v>561</v>
       </c>
       <c r="J22" t="n">
-        <v>2424</v>
+        <v>1420</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5132494964599608</v>
+        <v>0.5533186758422851</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1619,38 +1624,38 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00950000</t>
+          <t>TSLA220819C01000000</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>44763.57381944444</v>
+        <v>44763.83328703704</v>
       </c>
       <c r="C23" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="n">
-        <v>7.15</v>
+        <v>6.75</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F23" t="n">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>4.0699997</v>
       </c>
       <c r="H23" t="n">
-        <v>53.763435</v>
+        <v>151.86566</v>
       </c>
       <c r="I23" t="n">
-        <v>216</v>
+        <v>3698</v>
       </c>
       <c r="J23" t="n">
-        <v>3042</v>
+        <v>11861</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5244798529052734</v>
+        <v>0.5557295404052736</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1669,38 +1674,38 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00960000</t>
+          <t>TSLA220819C01050000</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>44763.57390046296</v>
+        <v>44763.83230324074</v>
       </c>
       <c r="C24" t="n">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="D24" t="n">
-        <v>6.5</v>
+        <v>3.65</v>
       </c>
       <c r="E24" t="n">
-        <v>6.05</v>
+        <v>3.6</v>
       </c>
       <c r="F24" t="n">
-        <v>6.3</v>
+        <v>3.85</v>
       </c>
       <c r="G24" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>52.224827</v>
+        <v>144.96645</v>
       </c>
       <c r="I24" t="n">
-        <v>223</v>
+        <v>670</v>
       </c>
       <c r="J24" t="n">
-        <v>2683</v>
+        <v>2577</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5266160620117188</v>
+        <v>0.5629926513671876</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1719,38 +1724,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00970000</t>
+          <t>TSLA220819C01060000</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>44763.57358796296</v>
+        <v>44763.82915509259</v>
       </c>
       <c r="C25" t="n">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="D25" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="F25" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>2.0900002</v>
       </c>
       <c r="H25" t="n">
-        <v>47.945206</v>
+        <v>148.22696</v>
       </c>
       <c r="I25" t="n">
-        <v>110</v>
+        <v>783</v>
       </c>
       <c r="J25" t="n">
-        <v>1420</v>
+        <v>417</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5200853656005859</v>
+        <v>0.5653119641113282</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1769,38 +1774,38 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C01000000</t>
+          <t>TSLA220819C01100000</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>44763.57439814815</v>
+        <v>44763.83328703704</v>
       </c>
       <c r="C26" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D26" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="E26" t="n">
-        <v>3.8</v>
+        <v>2.09</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>2.23</v>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.3000001</v>
       </c>
       <c r="H26" t="n">
-        <v>45.52239</v>
+        <v>144.44446</v>
       </c>
       <c r="I26" t="n">
-        <v>527</v>
+        <v>1336</v>
       </c>
       <c r="J26" t="n">
-        <v>11861</v>
+        <v>4541</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5407150421142579</v>
+        <v>0.5767864587402343</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1819,38 +1824,38 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C01050000</t>
+          <t>TSLA220819C01150000</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>44763.57322916666</v>
+        <v>44763.83297453704</v>
       </c>
       <c r="C27" t="n">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="D27" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="E27" t="n">
-        <v>2.02</v>
+        <v>1.29</v>
       </c>
       <c r="F27" t="n">
-        <v>2.13</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.39999998</v>
+        <v>0.6700001</v>
       </c>
       <c r="H27" t="n">
-        <v>26.845636</v>
+        <v>103.076935</v>
       </c>
       <c r="I27" t="n">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="J27" t="n">
-        <v>2577</v>
+        <v>3327</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5510298803710938</v>
+        <v>0.5958292370605469</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1869,38 +1874,38 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C01100000</t>
+          <t>TSLA220819C01200000</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>44763.57378472222</v>
+        <v>44763.83174768519</v>
       </c>
       <c r="C28" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D28" t="n">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="E28" t="n">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="F28" t="n">
-        <v>1.19</v>
+        <v>0.87</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.45999998</v>
       </c>
       <c r="H28" t="n">
-        <v>27.777779</v>
+        <v>106.97674</v>
       </c>
       <c r="I28" t="n">
-        <v>110</v>
+        <v>1047</v>
       </c>
       <c r="J28" t="n">
-        <v>4541</v>
+        <v>3506</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5638471350097658</v>
+        <v>0.6098671826171876</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1919,38 +1924,38 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C01450000</t>
+          <t>TSLA220819C01250000</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>44762.81054398148</v>
+        <v>44763.8309837963</v>
       </c>
       <c r="C29" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>69</v>
+        <v>602</v>
       </c>
       <c r="J29" t="n">
-        <v>5352</v>
+        <v>2872</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7226590234375</v>
+        <v>0.6335485864257813</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1969,48 +1974,98 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C01550000</t>
+          <t>TSLA220819C01500000</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>44762.80614583333</v>
+        <v>44763.82930555556</v>
       </c>
       <c r="C30" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H30" t="n">
+        <v>159.99998</v>
+      </c>
+      <c r="I30" t="n">
+        <v>565</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5731</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.73633076171875</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>TSLA220819C02000000</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>44763.82454861111</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.03</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>70</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4764</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.7753928710937501</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>488</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6134</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9101571484375</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -2027,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,38 +2165,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00100000</t>
+          <t>TSLA220819P00200000</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44762.82054398148</v>
+        <v>44763.77792824074</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.060000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-60.000004</v>
       </c>
       <c r="I2" t="n">
-        <v>109</v>
+        <v>847</v>
       </c>
       <c r="J2" t="n">
-        <v>4169</v>
+        <v>4405</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1250046875</v>
+        <v>1.5390648046875</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2160,38 +2215,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00350000</t>
+          <t>TSLA220819P00250000</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44763.57252314815</v>
+        <v>44763.82501157407</v>
       </c>
       <c r="C3" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="E3" t="n">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.35000002</v>
+        <v>-0.12</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.750004</v>
+        <v>-50</v>
       </c>
       <c r="I3" t="n">
-        <v>429</v>
+        <v>920</v>
       </c>
       <c r="J3" t="n">
-        <v>1480</v>
+        <v>2478</v>
       </c>
       <c r="K3" t="n">
-        <v>1.176761928710937</v>
+        <v>1.48047134765625</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2210,38 +2265,38 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00360000</t>
+          <t>TSLA220819P00300000</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44763.57231481482</v>
+        <v>44763.82789351852</v>
       </c>
       <c r="C4" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46</v>
+        <v>0.22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.38</v>
+        <v>-0.19999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.18182</v>
+        <v>-44.444443</v>
       </c>
       <c r="I4" t="n">
-        <v>206</v>
+        <v>709</v>
       </c>
       <c r="J4" t="n">
-        <v>1133</v>
+        <v>3833</v>
       </c>
       <c r="K4" t="n">
-        <v>1.159183891601562</v>
+        <v>1.325198686523437</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2260,38 +2315,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00400000</t>
+          <t>TSLA220819P00350000</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44763.57383101852</v>
+        <v>44763.82820601852</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.86</v>
+        <v>0.48</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.49</v>
+        <v>-0.36</v>
       </c>
       <c r="H5" t="n">
-        <v>-36.56716</v>
+        <v>-45</v>
       </c>
       <c r="I5" t="n">
-        <v>286</v>
+        <v>640</v>
       </c>
       <c r="J5" t="n">
-        <v>6032</v>
+        <v>1480</v>
       </c>
       <c r="K5" t="n">
-        <v>1.078129609375</v>
+        <v>1.208500051269531</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -2310,38 +2365,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00410000</t>
+          <t>TSLA220819P00400000</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44763.57418981481</v>
+        <v>44763.83241898148</v>
       </c>
       <c r="C6" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E6" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.53000003</v>
+        <v>-0.62</v>
       </c>
       <c r="H6" t="n">
-        <v>-36.054424</v>
+        <v>-46.268658</v>
       </c>
       <c r="I6" t="n">
-        <v>212</v>
+        <v>1246</v>
       </c>
       <c r="J6" t="n">
-        <v>667</v>
+        <v>6032</v>
       </c>
       <c r="K6" t="n">
-        <v>1.060063293457032</v>
+        <v>1.100102155761719</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -2360,38 +2415,38 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00420000</t>
+          <t>TSLA220819P00450000</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44763.57194444445</v>
+        <v>44763.83005787037</v>
       </c>
       <c r="C7" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="E7" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.55999994</v>
+        <v>-1.02</v>
       </c>
       <c r="H7" t="n">
-        <v>-34.355824</v>
+        <v>-46.153843</v>
       </c>
       <c r="I7" t="n">
-        <v>172</v>
+        <v>1392</v>
       </c>
       <c r="J7" t="n">
-        <v>939</v>
+        <v>2795</v>
       </c>
       <c r="K7" t="n">
-        <v>1.044194232177734</v>
+        <v>0.9970703417968749</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2410,38 +2465,38 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00450000</t>
+          <t>TSLA220819P00500000</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>44763.57380787037</v>
+        <v>44763.83179398148</v>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="E8" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.74</v>
+        <v>-1.8599999</v>
       </c>
       <c r="H8" t="n">
-        <v>-33.484165</v>
+        <v>-48.94737</v>
       </c>
       <c r="I8" t="n">
-        <v>675</v>
+        <v>3147</v>
       </c>
       <c r="J8" t="n">
-        <v>2795</v>
+        <v>12225</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9899903344726562</v>
+        <v>0.9075936975097656</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2460,38 +2515,38 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00490000</t>
+          <t>TSLA220819P00540000</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>44763.57207175926</v>
+        <v>44763.83133101852</v>
       </c>
       <c r="C9" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="D9" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.89</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.1600001</v>
+        <v>-3.19</v>
       </c>
       <c r="H9" t="n">
-        <v>-34.11765</v>
+        <v>-53.166668</v>
       </c>
       <c r="I9" t="n">
-        <v>200</v>
+        <v>653</v>
       </c>
       <c r="J9" t="n">
-        <v>772</v>
+        <v>969</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9193123303222657</v>
+        <v>0.8358170715332029</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -2510,38 +2565,38 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00500000</t>
+          <t>TSLA220819P00550000</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>44763.57409722222</v>
+        <v>44763.83328703704</v>
       </c>
       <c r="C10" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D10" t="n">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="E10" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.3399999</v>
+        <v>-3.5700002</v>
       </c>
       <c r="H10" t="n">
-        <v>-35.263153</v>
+        <v>-53.68421</v>
       </c>
       <c r="I10" t="n">
-        <v>562</v>
+        <v>1709</v>
       </c>
       <c r="J10" t="n">
-        <v>12225</v>
+        <v>7019</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9046640393066407</v>
+        <v>0.8237322314453124</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2560,38 +2615,38 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00525000</t>
+          <t>TSLA220819P00600000</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>44763.57289351852</v>
+        <v>44763.83328703704</v>
       </c>
       <c r="C11" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="D11" t="n">
-        <v>3.25</v>
+        <v>5.27</v>
       </c>
       <c r="E11" t="n">
-        <v>3.15</v>
+        <v>5.15</v>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.77</v>
+        <v>-6.57</v>
       </c>
       <c r="H11" t="n">
-        <v>-35.258965</v>
+        <v>-55.48987</v>
       </c>
       <c r="I11" t="n">
-        <v>112</v>
+        <v>3180</v>
       </c>
       <c r="J11" t="n">
-        <v>183</v>
+        <v>7681</v>
       </c>
       <c r="K11" t="n">
-        <v>0.864137100830078</v>
+        <v>0.7510400872802734</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2610,38 +2665,38 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00540000</t>
+          <t>TSLA220819P00620000</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>44763.57327546296</v>
+        <v>44763.82796296296</v>
       </c>
       <c r="C12" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="D12" t="n">
-        <v>3.78</v>
+        <v>6.55</v>
       </c>
       <c r="E12" t="n">
-        <v>3.7</v>
+        <v>6.25</v>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>6.65</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.22</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-37</v>
+        <v>-56.333332</v>
       </c>
       <c r="I12" t="n">
-        <v>231</v>
+        <v>782</v>
       </c>
       <c r="J12" t="n">
-        <v>969</v>
+        <v>1304</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8397843170166015</v>
+        <v>0.7243679907226561</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -2660,38 +2715,38 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00550000</t>
+          <t>TSLA220819P00630000</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>44763.57344907407</v>
+        <v>44763.83177083333</v>
       </c>
       <c r="C13" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="D13" t="n">
-        <v>4.2</v>
+        <v>7.31</v>
       </c>
       <c r="E13" t="n">
-        <v>4.15</v>
+        <v>7.1</v>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.4500003</v>
+        <v>-9.530001</v>
       </c>
       <c r="H13" t="n">
-        <v>-36.84211</v>
+        <v>-56.59145</v>
       </c>
       <c r="I13" t="n">
-        <v>436</v>
+        <v>811</v>
       </c>
       <c r="J13" t="n">
-        <v>7019</v>
+        <v>850</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8261736132812498</v>
+        <v>0.7136564279174805</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2710,38 +2765,38 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00575000</t>
+          <t>TSLA220819P00640000</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>44763.57167824074</v>
+        <v>44763.828125</v>
       </c>
       <c r="C14" t="n">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="D14" t="n">
-        <v>5.45</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.45</v>
+        <v>7.85</v>
       </c>
       <c r="F14" t="n">
-        <v>5.65</v>
+        <v>8.25</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.4800005</v>
+        <v>-10.7699995</v>
       </c>
       <c r="H14" t="n">
-        <v>-38.96977</v>
+        <v>-57.256775</v>
       </c>
       <c r="I14" t="n">
-        <v>85</v>
+        <v>696</v>
       </c>
       <c r="J14" t="n">
-        <v>430</v>
+        <v>682</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7919942675781251</v>
+        <v>0.7008086560058593</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2760,38 +2815,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00600000</t>
+          <t>TSLA220819P00645000</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>44763.5743287037</v>
+        <v>44763.83288194444</v>
       </c>
       <c r="C15" t="n">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="D15" t="n">
-        <v>7.45</v>
+        <v>8.66</v>
       </c>
       <c r="E15" t="n">
-        <v>7.25</v>
+        <v>8.35</v>
       </c>
       <c r="F15" t="n">
-        <v>7.45</v>
+        <v>8.75</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.3900003</v>
+        <v>-11.24</v>
       </c>
       <c r="H15" t="n">
-        <v>-37.077705</v>
+        <v>-56.48241</v>
       </c>
       <c r="I15" t="n">
-        <v>449</v>
+        <v>1047</v>
       </c>
       <c r="J15" t="n">
-        <v>7681</v>
+        <v>855</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7614769946289064</v>
+        <v>0.6961089959716797</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2810,38 +2865,38 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00620000</t>
+          <t>TSLA220819P00650000</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>44763.57372685185</v>
+        <v>44763.83288194444</v>
       </c>
       <c r="C16" t="n">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="D16" t="n">
-        <v>9.6</v>
+        <v>9.19</v>
       </c>
       <c r="E16" t="n">
-        <v>9.4</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>9.6</v>
+        <v>9.25</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.3999996</v>
+        <v>-11.81</v>
       </c>
       <c r="H16" t="n">
-        <v>-36</v>
+        <v>-56.2381</v>
       </c>
       <c r="I16" t="n">
-        <v>101</v>
+        <v>2876</v>
       </c>
       <c r="J16" t="n">
-        <v>1304</v>
+        <v>7197</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7459437026977539</v>
+        <v>0.6919586468505861</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2860,38 +2915,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00640000</t>
+          <t>TSLA220819P00660000</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>44763.57313657407</v>
+        <v>44763.83277777778</v>
       </c>
       <c r="C17" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="D17" t="n">
-        <v>12.15</v>
+        <v>10.34</v>
       </c>
       <c r="E17" t="n">
-        <v>11.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.66</v>
+        <v>-13.030001</v>
       </c>
       <c r="H17" t="n">
-        <v>-35.4067</v>
+        <v>-55.75524</v>
       </c>
       <c r="I17" t="n">
-        <v>112</v>
+        <v>587</v>
       </c>
       <c r="J17" t="n">
-        <v>682</v>
+        <v>1962</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7271755798339843</v>
+        <v>0.681216566772461</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2910,38 +2965,38 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00650000</t>
+          <t>TSLA220819P00670000</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>44763.57390046296</v>
+        <v>44763.83174768519</v>
       </c>
       <c r="C18" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>11.65</v>
       </c>
       <c r="E18" t="n">
-        <v>13.05</v>
+        <v>11.2</v>
       </c>
       <c r="F18" t="n">
-        <v>13.3</v>
+        <v>11.65</v>
       </c>
       <c r="G18" t="n">
-        <v>-8</v>
+        <v>-14.690001</v>
       </c>
       <c r="H18" t="n">
-        <v>-38.095238</v>
+        <v>-55.770695</v>
       </c>
       <c r="I18" t="n">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="J18" t="n">
-        <v>7197</v>
+        <v>798</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7134428070068359</v>
+        <v>0.6718172467041017</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2960,38 +3015,38 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00675000</t>
+          <t>TSLA220819P00700000</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>44763.57381944444</v>
+        <v>44763.83293981481</v>
       </c>
       <c r="C19" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="D19" t="n">
-        <v>17.65</v>
+        <v>16.2</v>
       </c>
       <c r="E19" t="n">
-        <v>17.05</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>17.35</v>
+        <v>16.35</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.780001</v>
+        <v>-19.599998</v>
       </c>
       <c r="H19" t="n">
-        <v>-35.654396</v>
+        <v>-54.7486</v>
       </c>
       <c r="I19" t="n">
-        <v>131</v>
+        <v>2987</v>
       </c>
       <c r="J19" t="n">
-        <v>719</v>
+        <v>7048</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6879914013671876</v>
+        <v>0.646762565612793</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -3010,38 +3065,38 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00692500</t>
+          <t>TSLA220819P00710000</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>44762.77302083333</v>
+        <v>44763.83324074074</v>
       </c>
       <c r="C20" t="n">
-        <v>692.5</v>
+        <v>710</v>
       </c>
       <c r="D20" t="n">
-        <v>33.2</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>17.75</v>
       </c>
       <c r="F20" t="n">
-        <v>21.25</v>
+        <v>18.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-21.48</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-54.40729</v>
       </c>
       <c r="I20" t="n">
-        <v>193</v>
+        <v>561</v>
       </c>
       <c r="J20" t="n">
-        <v>171</v>
+        <v>893</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6782258740234376</v>
+        <v>0.6383397982788085</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -3060,38 +3115,38 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00700000</t>
+          <t>TSLA220819P00730000</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44763.57398148148</v>
+        <v>44763.83306712963</v>
       </c>
       <c r="C21" t="n">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="D21" t="n">
-        <v>22.71</v>
+        <v>22.65</v>
       </c>
       <c r="E21" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="F21" t="n">
-        <v>22.95</v>
+        <v>22.8</v>
       </c>
       <c r="G21" t="n">
-        <v>-13.09</v>
+        <v>-24.99</v>
       </c>
       <c r="H21" t="n">
-        <v>-36.564247</v>
+        <v>-52.45592</v>
       </c>
       <c r="I21" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J21" t="n">
-        <v>7048</v>
+        <v>4239</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6708101766967774</v>
+        <v>0.6225318508911133</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -3110,38 +3165,38 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00712500</t>
+          <t>TSLA220819P00750000</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>44762.81986111111</v>
+        <v>44763.83297453704</v>
       </c>
       <c r="C22" t="n">
-        <v>712.5</v>
+        <v>750</v>
       </c>
       <c r="D22" t="n">
-        <v>39.8</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>26.95</v>
+        <v>27.6</v>
       </c>
       <c r="F22" t="n">
-        <v>27.4</v>
+        <v>28.35</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-29.400002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-51.219513</v>
       </c>
       <c r="I22" t="n">
-        <v>393</v>
+        <v>2609</v>
       </c>
       <c r="J22" t="n">
-        <v>355</v>
+        <v>7179</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6776460458374024</v>
+        <v>0.6095314926147463</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -3160,38 +3215,38 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00725000</t>
+          <t>TSLA220819P00770000</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>44763.57068287037</v>
+        <v>44763.83313657407</v>
       </c>
       <c r="C23" t="n">
-        <v>725</v>
+        <v>770</v>
       </c>
       <c r="D23" t="n">
-        <v>28.68</v>
+        <v>34.7</v>
       </c>
       <c r="E23" t="n">
-        <v>30.7</v>
+        <v>34.05</v>
       </c>
       <c r="F23" t="n">
-        <v>31.15</v>
+        <v>34.95</v>
       </c>
       <c r="G23" t="n">
-        <v>-16.259998</v>
+        <v>-32.780003</v>
       </c>
       <c r="H23" t="n">
-        <v>-36.181572</v>
+        <v>-48.577354</v>
       </c>
       <c r="I23" t="n">
-        <v>128</v>
+        <v>503</v>
       </c>
       <c r="J23" t="n">
-        <v>924</v>
+        <v>2578</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6701540553283694</v>
+        <v>0.5976602734375001</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -3210,38 +3265,38 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00730000</t>
+          <t>TSLA220819P00775000</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>44763.5739699074</v>
+        <v>44763.83255787037</v>
       </c>
       <c r="C24" t="n">
-        <v>730</v>
+        <v>775</v>
       </c>
       <c r="D24" t="n">
-        <v>31.15</v>
+        <v>36.2</v>
       </c>
       <c r="E24" t="n">
-        <v>31.9</v>
+        <v>35.85</v>
       </c>
       <c r="F24" t="n">
-        <v>32.3</v>
+        <v>36.7</v>
       </c>
       <c r="G24" t="n">
-        <v>-16.49</v>
+        <v>-35.05</v>
       </c>
       <c r="H24" t="n">
-        <v>-34.61377</v>
+        <v>-49.19298</v>
       </c>
       <c r="I24" t="n">
-        <v>107</v>
+        <v>594</v>
       </c>
       <c r="J24" t="n">
-        <v>4239</v>
+        <v>202</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6617770639038086</v>
+        <v>0.5944864770507813</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -3260,38 +3315,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00750000</t>
+          <t>TSLA220819P00780000</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>44763.57436342593</v>
+        <v>44763.83297453704</v>
       </c>
       <c r="C25" t="n">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="D25" t="n">
-        <v>38.9</v>
+        <v>38.18</v>
       </c>
       <c r="E25" t="n">
-        <v>38.15</v>
+        <v>37.65</v>
       </c>
       <c r="F25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="G25" t="n">
-        <v>-18.5</v>
+        <v>-35.39</v>
       </c>
       <c r="H25" t="n">
-        <v>-32.22996</v>
+        <v>-48.103844</v>
       </c>
       <c r="I25" t="n">
-        <v>282</v>
+        <v>1037</v>
       </c>
       <c r="J25" t="n">
-        <v>7179</v>
+        <v>405</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6414220428466797</v>
+        <v>0.5908549215698243</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -3310,38 +3365,38 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00770000</t>
+          <t>TSLA220819P00785000</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>44763.57363425926</v>
+        <v>44763.8318287037</v>
       </c>
       <c r="C26" t="n">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="D26" t="n">
-        <v>48.13</v>
+        <v>40.48</v>
       </c>
       <c r="E26" t="n">
-        <v>48.2</v>
+        <v>39.6</v>
       </c>
       <c r="F26" t="n">
-        <v>48.7</v>
+        <v>40.45</v>
       </c>
       <c r="G26" t="n">
-        <v>-19.350002</v>
+        <v>-34.62</v>
       </c>
       <c r="H26" t="n">
-        <v>-28.675165</v>
+        <v>-46.098537</v>
       </c>
       <c r="I26" t="n">
-        <v>106</v>
+        <v>878</v>
       </c>
       <c r="J26" t="n">
-        <v>2578</v>
+        <v>156</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6534763656616213</v>
+        <v>0.5881694015502931</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -3360,38 +3415,38 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00775000</t>
+          <t>TSLA220819P00800000</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>44763.57324074074</v>
+        <v>44763.83332175926</v>
       </c>
       <c r="C27" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="D27" t="n">
-        <v>50.45</v>
+        <v>46.35</v>
       </c>
       <c r="E27" t="n">
-        <v>49.65</v>
+        <v>45.8</v>
       </c>
       <c r="F27" t="n">
-        <v>50.15</v>
+        <v>46.95</v>
       </c>
       <c r="G27" t="n">
-        <v>-20.8</v>
+        <v>-40.85</v>
       </c>
       <c r="H27" t="n">
-        <v>-29.192982</v>
+        <v>-46.84633</v>
       </c>
       <c r="I27" t="n">
-        <v>99</v>
+        <v>1451</v>
       </c>
       <c r="J27" t="n">
-        <v>202</v>
+        <v>3094</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6423375610351563</v>
+        <v>0.5809978424072266</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -3410,38 +3465,38 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00800000</t>
+          <t>TSLA220819P00850000</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>44763.57414351852</v>
+        <v>44763.831875</v>
       </c>
       <c r="C28" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="D28" t="n">
-        <v>61.7</v>
+        <v>72.7</v>
       </c>
       <c r="E28" t="n">
-        <v>61.1</v>
+        <v>71.8</v>
       </c>
       <c r="F28" t="n">
-        <v>61.8</v>
+        <v>73</v>
       </c>
       <c r="G28" t="n">
-        <v>-25.499996</v>
+        <v>-51.15</v>
       </c>
       <c r="H28" t="n">
-        <v>-29.243114</v>
+        <v>-41.29996</v>
       </c>
       <c r="I28" t="n">
-        <v>113</v>
+        <v>476</v>
       </c>
       <c r="J28" t="n">
-        <v>3094</v>
+        <v>2212</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6241797836303712</v>
+        <v>0.558872819519043</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -3452,56 +3507,6 @@
         </is>
       </c>
       <c r="N28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00900000</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>44763.57399305556</v>
-      </c>
-      <c r="C29" t="n">
-        <v>900</v>
-      </c>
-      <c r="D29" t="n">
-        <v>130.38</v>
-      </c>
-      <c r="E29" t="n">
-        <v>130.05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>132.05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-37.01999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-22.114689</v>
-      </c>
-      <c r="I29" t="n">
-        <v>97</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6391027301025392</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -3518,7 +3523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,38 +3606,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00700000</t>
+          <t>TSLA221216C00400000</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44763.57130787037</v>
+        <v>44763.76498842592</v>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>108.81</v>
+        <v>435.77</v>
       </c>
       <c r="E2" t="n">
-        <v>104.95</v>
+        <v>430.35</v>
       </c>
       <c r="F2" t="n">
-        <v>106.75</v>
+        <v>432.4</v>
       </c>
       <c r="G2" t="n">
-        <v>29.809998</v>
+        <v>125.76999</v>
       </c>
       <c r="H2" t="n">
-        <v>37.734173</v>
+        <v>40.570965</v>
       </c>
       <c r="I2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
-        <v>5577</v>
+        <v>447</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5554854022216797</v>
+        <v>0.8950816156005859</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3651,38 +3656,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00730000</t>
+          <t>TSLA221216C00500000</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44763.57413194444</v>
+        <v>44763.81756944444</v>
       </c>
       <c r="C3" t="n">
-        <v>730</v>
+        <v>500</v>
       </c>
       <c r="D3" t="n">
-        <v>83.89</v>
+        <v>345.16</v>
       </c>
       <c r="E3" t="n">
-        <v>83.75</v>
+        <v>342.7</v>
       </c>
       <c r="F3" t="n">
-        <v>85.95</v>
+        <v>345.15</v>
       </c>
       <c r="G3" t="n">
-        <v>22.18</v>
+        <v>59.830017</v>
       </c>
       <c r="H3" t="n">
-        <v>35.942314</v>
+        <v>20.96871</v>
       </c>
       <c r="I3" t="n">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>3795</v>
+        <v>1158</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5591779922485353</v>
+        <v>0.7985249639892578</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3701,38 +3706,38 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00732500</t>
+          <t>TSLA221216C00700000</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44762.82850694445</v>
+        <v>44763.78050925926</v>
       </c>
       <c r="C4" t="n">
-        <v>732.5</v>
+        <v>700</v>
       </c>
       <c r="D4" t="n">
-        <v>61.36</v>
+        <v>195.1</v>
       </c>
       <c r="E4" t="n">
-        <v>80.25</v>
+        <v>193.35</v>
       </c>
       <c r="F4" t="n">
-        <v>82.5</v>
+        <v>195.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.100006</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>34.551727</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J4" t="n">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5354355538940431</v>
+        <v>0.6735948778533937</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -3751,38 +3756,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00750000</t>
+          <t>TSLA221216C00750000</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44763.57376157407</v>
+        <v>44763.77542824074</v>
       </c>
       <c r="C5" t="n">
         <v>750</v>
       </c>
       <c r="D5" t="n">
-        <v>70.29000000000001</v>
+        <v>163.62</v>
       </c>
       <c r="E5" t="n">
-        <v>67.75</v>
+        <v>163.25</v>
       </c>
       <c r="F5" t="n">
-        <v>68.40000000000001</v>
+        <v>165.1</v>
       </c>
       <c r="G5" t="n">
-        <v>18.98</v>
+        <v>45.119995</v>
       </c>
       <c r="H5" t="n">
-        <v>36.99084</v>
+        <v>38.075943</v>
       </c>
       <c r="I5" t="n">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="J5" t="n">
-        <v>7817</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5088397505187989</v>
+        <v>0.6517368811035158</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -3801,38 +3806,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00760000</t>
+          <t>TSLA221216C00800000</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44763.57298611111</v>
+        <v>44763.83174768519</v>
       </c>
       <c r="C6" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5</v>
+        <v>137.5</v>
       </c>
       <c r="E6" t="n">
-        <v>65.3</v>
+        <v>136.45</v>
       </c>
       <c r="F6" t="n">
-        <v>66.40000000000001</v>
+        <v>138.1</v>
       </c>
       <c r="G6" t="n">
-        <v>18.5</v>
+        <v>42.199997</v>
       </c>
       <c r="H6" t="n">
-        <v>40.217392</v>
+        <v>44.28121</v>
       </c>
       <c r="I6" t="n">
-        <v>178</v>
+        <v>608</v>
       </c>
       <c r="J6" t="n">
-        <v>1618</v>
+        <v>1316</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5526015199279786</v>
+        <v>0.6337393193817139</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -3851,41 +3856,41 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00770000</t>
+          <t>TSLA221216C00850000</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44763.57310185185</v>
+        <v>44763.81488425926</v>
       </c>
       <c r="C7" t="n">
-        <v>770</v>
+        <v>850</v>
       </c>
       <c r="D7" t="n">
-        <v>57.4</v>
+        <v>114.2</v>
       </c>
       <c r="E7" t="n">
-        <v>57.5</v>
+        <v>112.8</v>
       </c>
       <c r="F7" t="n">
-        <v>58.2</v>
+        <v>114.4</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5</v>
+        <v>36.559998</v>
       </c>
       <c r="H7" t="n">
-        <v>36.99284</v>
+        <v>47.089127</v>
       </c>
       <c r="I7" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="J7" t="n">
-        <v>1310</v>
+        <v>884</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5242662319946289</v>
+        <v>0.618015294494629</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -3901,41 +3906,41 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00775000</t>
+          <t>TSLA221216C00895000</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>44763.57420138889</v>
+        <v>44763.81932870371</v>
       </c>
       <c r="C8" t="n">
-        <v>775</v>
+        <v>895</v>
       </c>
       <c r="D8" t="n">
-        <v>56.7</v>
+        <v>94.13</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>16.73</v>
+        <v>30.229996</v>
       </c>
       <c r="H8" t="n">
-        <v>41.85639</v>
+        <v>47.30829</v>
       </c>
       <c r="I8" t="n">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>435</v>
+        <v>34</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5300339965820313</v>
+        <v>0.6063119203186036</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -3951,41 +3956,41 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00780000</t>
+          <t>TSLA221216C00900000</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>44763.57420138889</v>
+        <v>44763.82777777778</v>
       </c>
       <c r="C9" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4</v>
+        <v>94.5</v>
       </c>
       <c r="E9" t="n">
-        <v>52.7</v>
+        <v>92.25</v>
       </c>
       <c r="F9" t="n">
-        <v>53.4</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>16.380001</v>
+        <v>32.75</v>
       </c>
       <c r="H9" t="n">
-        <v>43.082592</v>
+        <v>53.036438</v>
       </c>
       <c r="I9" t="n">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="J9" t="n">
-        <v>817</v>
+        <v>2376</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5291337370300293</v>
+        <v>0.6044808839416507</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -4001,41 +4006,41 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00785000</t>
+          <t>TSLA221216C00950000</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>44763.57305555556</v>
+        <v>44763.83153935185</v>
       </c>
       <c r="C10" t="n">
-        <v>785</v>
+        <v>950</v>
       </c>
       <c r="D10" t="n">
-        <v>50.13</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>52.25</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>53.05</v>
+        <v>76.75</v>
       </c>
       <c r="G10" t="n">
-        <v>13.68</v>
+        <v>28.330002</v>
       </c>
       <c r="H10" t="n">
-        <v>37.530865</v>
+        <v>58.898132</v>
       </c>
       <c r="I10" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" t="n">
-        <v>459</v>
+        <v>1338</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5523726403808593</v>
+        <v>0.5946772100067138</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -4051,38 +4056,38 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00800000</t>
+          <t>TSLA221216C00980000</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>44763.57385416667</v>
+        <v>44763.79076388889</v>
       </c>
       <c r="C11" t="n">
-        <v>800</v>
+        <v>980</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4</v>
+        <v>68.8</v>
       </c>
       <c r="E11" t="n">
-        <v>41.7</v>
+        <v>66.3</v>
       </c>
       <c r="F11" t="n">
-        <v>42.15</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>13.890001</v>
+        <v>25.860004</v>
       </c>
       <c r="H11" t="n">
-        <v>45.526062</v>
+        <v>60.22358</v>
       </c>
       <c r="I11" t="n">
-        <v>621</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>4780</v>
+        <v>543</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5105792350769043</v>
+        <v>0.5892298767852785</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -4101,38 +4106,38 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00810000</t>
+          <t>TSLA221216C01000000</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>44763.57253472223</v>
+        <v>44763.82006944445</v>
       </c>
       <c r="C12" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>40.75</v>
+        <v>61.5</v>
       </c>
       <c r="E12" t="n">
-        <v>38.95</v>
+        <v>60.85</v>
       </c>
       <c r="F12" t="n">
-        <v>39.55</v>
+        <v>62.45</v>
       </c>
       <c r="G12" t="n">
-        <v>13.43</v>
+        <v>22.5</v>
       </c>
       <c r="H12" t="n">
-        <v>49.158127</v>
+        <v>57.692307</v>
       </c>
       <c r="I12" t="n">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="J12" t="n">
-        <v>1062</v>
+        <v>3002</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5278062356567383</v>
+        <v>0.5860865976715088</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -4151,38 +4156,38 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00820000</t>
+          <t>TSLA221216C01100000</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>44763.57394675926</v>
+        <v>44763.83164351852</v>
       </c>
       <c r="C13" t="n">
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="D13" t="n">
-        <v>36.6</v>
+        <v>40.5</v>
       </c>
       <c r="E13" t="n">
-        <v>35.6</v>
+        <v>39.5</v>
       </c>
       <c r="F13" t="n">
-        <v>36.05</v>
+        <v>40.5</v>
       </c>
       <c r="G13" t="n">
-        <v>12.199999</v>
+        <v>16.1</v>
       </c>
       <c r="H13" t="n">
-        <v>49.999996</v>
+        <v>65.98361</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J13" t="n">
-        <v>856</v>
+        <v>1674</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5332993447875977</v>
+        <v>0.5734524466705323</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -4201,38 +4206,38 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00850000</t>
+          <t>TSLA221216C01150000</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>44763.57399305556</v>
+        <v>44763.81849537037</v>
       </c>
       <c r="C14" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="D14" t="n">
-        <v>26.31</v>
+        <v>32.25</v>
       </c>
       <c r="E14" t="n">
-        <v>25.8</v>
+        <v>31.8</v>
       </c>
       <c r="F14" t="n">
-        <v>26.2</v>
+        <v>32.9</v>
       </c>
       <c r="G14" t="n">
-        <v>9.289999</v>
+        <v>13.1</v>
       </c>
       <c r="H14" t="n">
-        <v>54.582832</v>
+        <v>68.40732</v>
       </c>
       <c r="I14" t="n">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>3994</v>
+        <v>503</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5353134848022462</v>
+        <v>0.5706295989227296</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -4251,38 +4256,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00860000</t>
+          <t>TSLA221216C01200000</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>44763.57435185185</v>
+        <v>44763.83012731482</v>
       </c>
       <c r="C15" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="D15" t="n">
-        <v>22.75</v>
+        <v>26.5</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6</v>
+        <v>25.5</v>
       </c>
       <c r="F15" t="n">
-        <v>23.45</v>
+        <v>26.55</v>
       </c>
       <c r="G15" t="n">
-        <v>7.75</v>
+        <v>11.3</v>
       </c>
       <c r="H15" t="n">
-        <v>51.666664</v>
+        <v>74.34211000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="J15" t="n">
-        <v>7144</v>
+        <v>2864</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5330399479675292</v>
+        <v>0.567661794128418</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -4301,38 +4306,38 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00880000</t>
+          <t>TSLA221216C01250000</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>44763.57387731481</v>
+        <v>44763.80318287037</v>
       </c>
       <c r="C16" t="n">
-        <v>880</v>
+        <v>1250</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="E16" t="n">
-        <v>17.4</v>
+        <v>20.6</v>
       </c>
       <c r="F16" t="n">
-        <v>17.75</v>
+        <v>21.55</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2700005</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>53.45269</v>
+        <v>76.22951500000001</v>
       </c>
       <c r="I16" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J16" t="n">
-        <v>5101</v>
+        <v>634</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5247545083618165</v>
+        <v>0.5665479136657714</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -4351,38 +4356,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00885000</t>
+          <t>TSLA221216C01300000</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>44763.5734375</v>
+        <v>44763.83261574074</v>
       </c>
       <c r="C17" t="n">
-        <v>885</v>
+        <v>1300</v>
       </c>
       <c r="D17" t="n">
-        <v>16.25</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F17" t="n">
-        <v>17.05</v>
+        <v>17.5</v>
       </c>
       <c r="G17" t="n">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>47.727272</v>
+        <v>70</v>
       </c>
       <c r="I17" t="n">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="J17" t="n">
-        <v>292</v>
+        <v>1496</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5296372720336916</v>
+        <v>0.5665021377563476</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -4401,38 +4406,38 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00900000</t>
+          <t>TSLA221216C01400000</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>44763.57422453703</v>
+        <v>44763.82577546296</v>
       </c>
       <c r="C18" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="n">
-        <v>13.82</v>
+        <v>11.43</v>
       </c>
       <c r="E18" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="F18" t="n">
-        <v>13.6</v>
+        <v>11.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4.67</v>
+        <v>4.9100003</v>
       </c>
       <c r="H18" t="n">
-        <v>51.038254</v>
+        <v>75.306755</v>
       </c>
       <c r="I18" t="n">
-        <v>780</v>
+        <v>467</v>
       </c>
       <c r="J18" t="n">
-        <v>8001</v>
+        <v>2229</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5213060565185546</v>
+        <v>0.5671277418518066</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -4451,38 +4456,38 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00910000</t>
+          <t>TSLA221216C01450000</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>44763.57362268519</v>
+        <v>44763.78711805555</v>
       </c>
       <c r="C19" t="n">
-        <v>910</v>
+        <v>1450</v>
       </c>
       <c r="D19" t="n">
-        <v>11.8</v>
+        <v>9.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11.85</v>
+        <v>9.1</v>
       </c>
       <c r="F19" t="n">
-        <v>12.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8500004</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>48.427677</v>
+        <v>75.92592</v>
       </c>
       <c r="I19" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>1411</v>
+        <v>315</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5243883010864258</v>
+        <v>0.569416537322998</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -4501,38 +4506,38 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00920000</t>
+          <t>TSLA221216C01500000</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.78190972222</v>
       </c>
       <c r="C20" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="D20" t="n">
-        <v>10.2</v>
+        <v>8.15</v>
       </c>
       <c r="E20" t="n">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="F20" t="n">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1099997</v>
+        <v>3.7299995</v>
       </c>
       <c r="H20" t="n">
-        <v>43.864594</v>
+        <v>84.38912999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>4244</v>
+        <v>1269</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5145312219238281</v>
+        <v>0.5709271423339843</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -4551,38 +4556,38 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00930000</t>
+          <t>TSLA221216C01550000</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.77563657407</v>
       </c>
       <c r="C21" t="n">
-        <v>930</v>
+        <v>1550</v>
       </c>
       <c r="D21" t="n">
-        <v>8.949999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="F21" t="n">
-        <v>9.75</v>
+        <v>6.75</v>
       </c>
       <c r="G21" t="n">
-        <v>2.77</v>
+        <v>3.03</v>
       </c>
       <c r="H21" t="n">
-        <v>44.822006</v>
+        <v>87.31988</v>
       </c>
       <c r="I21" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J21" t="n">
-        <v>961</v>
+        <v>298</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5320176193237305</v>
+        <v>0.5728192132568359</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -4601,38 +4606,38 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00940000</t>
+          <t>TSLA221216C01600000</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>44763.57341435185</v>
+        <v>44763.82810185185</v>
       </c>
       <c r="C22" t="n">
-        <v>940</v>
+        <v>1600</v>
       </c>
       <c r="D22" t="n">
-        <v>7.85</v>
+        <v>5.35</v>
       </c>
       <c r="E22" t="n">
-        <v>7.35</v>
+        <v>5.1</v>
       </c>
       <c r="F22" t="n">
-        <v>7.6</v>
+        <v>5.75</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.3899999</v>
       </c>
       <c r="H22" t="n">
-        <v>44.0367</v>
+        <v>80.74323</v>
       </c>
       <c r="I22" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>2424</v>
+        <v>898</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5132494964599608</v>
+        <v>0.5754436987304687</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -4651,38 +4656,38 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00950000</t>
+          <t>TSLA221216C01800000</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>44763.57381944444</v>
+        <v>44763.75824074074</v>
       </c>
       <c r="C23" t="n">
-        <v>950</v>
+        <v>1800</v>
       </c>
       <c r="D23" t="n">
-        <v>7.15</v>
+        <v>2.71</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9</v>
+        <v>2.48</v>
       </c>
       <c r="F23" t="n">
-        <v>7.1</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>53.763435</v>
+        <v>79.47020999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>3042</v>
+        <v>1336</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5244798529052734</v>
+        <v>0.5858806060791015</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -4701,38 +4706,38 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00960000</t>
+          <t>TSLA221216C02000000</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>44763.57390046296</v>
+        <v>44763.8290162037</v>
       </c>
       <c r="C24" t="n">
-        <v>960</v>
+        <v>2000</v>
       </c>
       <c r="D24" t="n">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="E24" t="n">
-        <v>6.05</v>
+        <v>1.27</v>
       </c>
       <c r="F24" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.23</v>
+        <v>0.49000007</v>
       </c>
       <c r="H24" t="n">
-        <v>52.224827</v>
+        <v>51.041676</v>
       </c>
       <c r="I24" t="n">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="J24" t="n">
-        <v>2683</v>
+        <v>1045</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5266160620117188</v>
+        <v>0.590946473388672</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -4751,38 +4756,38 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819C00970000</t>
+          <t>TSLA221216C02400000</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>44763.57358796296</v>
+        <v>44763.82594907407</v>
       </c>
       <c r="C25" t="n">
-        <v>970</v>
+        <v>2400</v>
       </c>
       <c r="D25" t="n">
-        <v>5.4</v>
+        <v>0.52</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>0.52</v>
       </c>
       <c r="F25" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>0.19999999</v>
       </c>
       <c r="H25" t="n">
-        <v>47.945206</v>
+        <v>62.5</v>
       </c>
       <c r="I25" t="n">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="J25" t="n">
-        <v>1420</v>
+        <v>4333</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5200853656005859</v>
+        <v>0.6234168518066407</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -4793,256 +4798,6 @@
         </is>
       </c>
       <c r="N25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819C01000000</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>44763.57439814815</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H26" t="n">
-        <v>45.52239</v>
-      </c>
-      <c r="I26" t="n">
-        <v>527</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11861</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.5407150421142579</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819C01050000</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>44763.57322916666</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.39999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>26.845636</v>
-      </c>
-      <c r="I27" t="n">
-        <v>80</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2577</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.5510298803710938</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819C01100000</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>44763.57378472222</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H28" t="n">
-        <v>27.777779</v>
-      </c>
-      <c r="I28" t="n">
-        <v>110</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4541</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.5638471350097658</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819C01450000</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>44762.81054398148</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>69</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5352</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.7226590234375</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819C01550000</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>44762.80614583333</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1550</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>70</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4764</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.7753928710937501</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -5059,7 +4814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5142,38 +4897,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00100000</t>
+          <t>TSLA221216P00050000</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44762.82054398148</v>
+        <v>44763.83295138889</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-47.058823</v>
       </c>
       <c r="I2" t="n">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="J2" t="n">
-        <v>4169</v>
+        <v>3839</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1250046875</v>
+        <v>1.4921900390625</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -5192,38 +4947,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00350000</t>
+          <t>TSLA221216P00200000</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44763.57252314815</v>
+        <v>44763.82429398148</v>
       </c>
       <c r="C3" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>2.19</v>
       </c>
       <c r="E3" t="n">
-        <v>0.41</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>2.39</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.35000002</v>
+        <v>-0.48000002</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.750004</v>
+        <v>-17.977528</v>
       </c>
       <c r="I3" t="n">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="J3" t="n">
-        <v>1480</v>
+        <v>2623</v>
       </c>
       <c r="K3" t="n">
-        <v>1.176761928710937</v>
+        <v>1.091801416015625</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -5242,38 +4997,38 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00360000</t>
+          <t>TSLA221216P00250000</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44763.57231481482</v>
+        <v>44763.82913194445</v>
       </c>
       <c r="C4" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>3.54</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46</v>
+        <v>3.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0.59</v>
+        <v>3.75</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.38</v>
+        <v>-0.7600002</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.18182</v>
+        <v>-17.674423</v>
       </c>
       <c r="I4" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J4" t="n">
-        <v>1133</v>
+        <v>767</v>
       </c>
       <c r="K4" t="n">
-        <v>1.159183891601562</v>
+        <v>0.99804689453125</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -5292,38 +5047,38 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00400000</t>
+          <t>TSLA221216P00300000</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44763.57383101852</v>
+        <v>44763.82633101852</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>5.32</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.86</v>
+        <v>5.6</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.49</v>
+        <v>-1.4299998</v>
       </c>
       <c r="H5" t="n">
-        <v>-36.56716</v>
+        <v>-21.185183</v>
       </c>
       <c r="I5" t="n">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="J5" t="n">
-        <v>6032</v>
+        <v>4534</v>
       </c>
       <c r="K5" t="n">
-        <v>1.078129609375</v>
+        <v>0.9273078558349608</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -5342,38 +5097,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00410000</t>
+          <t>TSLA221216P00350000</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44763.57418981481</v>
+        <v>44763.81155092592</v>
       </c>
       <c r="C6" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="E6" t="n">
-        <v>0.88</v>
+        <v>7.65</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.53000003</v>
+        <v>-2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>-36.054424</v>
+        <v>-24.077671</v>
       </c>
       <c r="I6" t="n">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="J6" t="n">
-        <v>667</v>
+        <v>1641</v>
       </c>
       <c r="K6" t="n">
-        <v>1.060063293457032</v>
+        <v>0.8677991735839843</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -5392,38 +5147,38 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00420000</t>
+          <t>TSLA221216P00400000</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44763.57194444445</v>
+        <v>44763.82429398148</v>
       </c>
       <c r="C7" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07</v>
+        <v>11.33</v>
       </c>
       <c r="E7" t="n">
-        <v>1.02</v>
+        <v>11.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>11.8</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.55999994</v>
+        <v>-3.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-34.355824</v>
+        <v>-24.466667</v>
       </c>
       <c r="I7" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J7" t="n">
-        <v>939</v>
+        <v>2755</v>
       </c>
       <c r="K7" t="n">
-        <v>1.044194232177734</v>
+        <v>0.8151873950195312</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -5442,38 +5197,38 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00450000</t>
+          <t>TSLA221216P00450000</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>44763.57380787037</v>
+        <v>44763.79429398148</v>
       </c>
       <c r="C8" t="n">
         <v>450</v>
       </c>
       <c r="D8" t="n">
-        <v>1.47</v>
+        <v>16.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.44</v>
+        <v>15.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>16.55</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.74</v>
+        <v>-5.449999</v>
       </c>
       <c r="H8" t="n">
-        <v>-33.484165</v>
+        <v>-25.290018</v>
       </c>
       <c r="I8" t="n">
-        <v>675</v>
+        <v>71</v>
       </c>
       <c r="J8" t="n">
-        <v>2795</v>
+        <v>828</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9899903344726562</v>
+        <v>0.7707237283325196</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -5492,38 +5247,38 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00490000</t>
+          <t>TSLA221216P00480000</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>44763.57207175926</v>
+        <v>44763.77512731482</v>
       </c>
       <c r="C9" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D9" t="n">
-        <v>2.24</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>2.19</v>
+        <v>19.45</v>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>20.05</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.1600001</v>
+        <v>-6.6499996</v>
       </c>
       <c r="H9" t="n">
-        <v>-34.11765</v>
+        <v>-24.953094</v>
       </c>
       <c r="I9" t="n">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="J9" t="n">
-        <v>772</v>
+        <v>101</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9193123303222657</v>
+        <v>0.7472864627075196</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -5542,38 +5297,38 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00500000</t>
+          <t>TSLA221216P00500000</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>44763.57409722222</v>
+        <v>44763.8212037037</v>
       </c>
       <c r="C10" t="n">
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>2.46</v>
+        <v>22.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2.46</v>
+        <v>22.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>22.85</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.3399999</v>
+        <v>-7.4000015</v>
       </c>
       <c r="H10" t="n">
-        <v>-35.263153</v>
+        <v>-24.503317</v>
       </c>
       <c r="I10" t="n">
-        <v>562</v>
+        <v>350</v>
       </c>
       <c r="J10" t="n">
-        <v>12225</v>
+        <v>1820</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9046640393066407</v>
+        <v>0.733202741241455</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -5592,38 +5347,38 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00525000</t>
+          <t>TSLA221216P00600000</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>44763.57289351852</v>
+        <v>44763.83219907407</v>
       </c>
       <c r="C11" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="D11" t="n">
-        <v>3.25</v>
+        <v>41.85</v>
       </c>
       <c r="E11" t="n">
-        <v>3.15</v>
+        <v>40.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>41.9</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.77</v>
+        <v>-13.450001</v>
       </c>
       <c r="H11" t="n">
-        <v>-35.258965</v>
+        <v>-24.321882</v>
       </c>
       <c r="I11" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" t="n">
-        <v>183</v>
+        <v>2286</v>
       </c>
       <c r="K11" t="n">
-        <v>0.864137100830078</v>
+        <v>0.6722444885253909</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -5642,38 +5397,38 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00540000</t>
+          <t>TSLA221216P00650000</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>44763.57327546296</v>
+        <v>44763.82403935185</v>
       </c>
       <c r="C12" t="n">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="D12" t="n">
-        <v>3.78</v>
+        <v>54.42</v>
       </c>
       <c r="E12" t="n">
-        <v>3.7</v>
+        <v>54.05</v>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>55.2</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.22</v>
+        <v>-18.130005</v>
       </c>
       <c r="H12" t="n">
-        <v>-37</v>
+        <v>-24.989668</v>
       </c>
       <c r="I12" t="n">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="J12" t="n">
-        <v>969</v>
+        <v>1780</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8397843170166015</v>
+        <v>0.6471974367523192</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -5692,38 +5447,38 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00550000</t>
+          <t>TSLA221216P00660000</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>44763.57344907407</v>
+        <v>44763.82658564814</v>
       </c>
       <c r="C13" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="D13" t="n">
-        <v>4.2</v>
+        <v>57.05</v>
       </c>
       <c r="E13" t="n">
-        <v>4.15</v>
+        <v>57</v>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>58.05</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.4500003</v>
+        <v>-20.750004</v>
       </c>
       <c r="H13" t="n">
-        <v>-36.84211</v>
+        <v>-26.670954</v>
       </c>
       <c r="I13" t="n">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="J13" t="n">
-        <v>7019</v>
+        <v>294</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8261736132812498</v>
+        <v>0.6419866123962403</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -5742,38 +5497,38 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00575000</t>
+          <t>TSLA221216P00700000</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>44763.57167824074</v>
+        <v>44763.83293981481</v>
       </c>
       <c r="C14" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="D14" t="n">
-        <v>5.45</v>
+        <v>70.8</v>
       </c>
       <c r="E14" t="n">
-        <v>5.45</v>
+        <v>70.05</v>
       </c>
       <c r="F14" t="n">
-        <v>5.65</v>
+        <v>71.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.4800005</v>
+        <v>-21.699997</v>
       </c>
       <c r="H14" t="n">
-        <v>-38.96977</v>
+        <v>-23.459457</v>
       </c>
       <c r="I14" t="n">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="J14" t="n">
-        <v>430</v>
+        <v>2895</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7919942675781251</v>
+        <v>0.6249045688629151</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -5792,38 +5547,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00600000</t>
+          <t>TSLA221216P00730000</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>44763.5743287037</v>
+        <v>44763.67041666667</v>
       </c>
       <c r="C15" t="n">
-        <v>600</v>
+        <v>730</v>
       </c>
       <c r="D15" t="n">
-        <v>7.45</v>
+        <v>85</v>
       </c>
       <c r="E15" t="n">
-        <v>7.25</v>
+        <v>81.2</v>
       </c>
       <c r="F15" t="n">
-        <v>7.45</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.3900003</v>
+        <v>-21.400002</v>
       </c>
       <c r="H15" t="n">
-        <v>-37.077705</v>
+        <v>-20.112783</v>
       </c>
       <c r="I15" t="n">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="J15" t="n">
-        <v>7681</v>
+        <v>1206</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7614769946289064</v>
+        <v>0.6123009351348879</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -5842,38 +5597,38 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00620000</t>
+          <t>TSLA221216P00740000</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>44763.57372685185</v>
+        <v>44763.80673611111</v>
       </c>
       <c r="C16" t="n">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="D16" t="n">
-        <v>9.6</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>9.4</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>9.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.3999996</v>
+        <v>-27.04</v>
       </c>
       <c r="H16" t="n">
-        <v>-36</v>
+        <v>-24.078362</v>
       </c>
       <c r="I16" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="J16" t="n">
-        <v>1304</v>
+        <v>588</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7459437026977539</v>
+        <v>0.6083260603332521</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -5892,38 +5647,38 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00640000</t>
+          <t>TSLA221216P00750000</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>44763.57313657407</v>
+        <v>44763.83079861111</v>
       </c>
       <c r="C17" t="n">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="D17" t="n">
-        <v>12.15</v>
+        <v>90</v>
       </c>
       <c r="E17" t="n">
-        <v>11.85</v>
+        <v>89.25</v>
       </c>
       <c r="F17" t="n">
-        <v>12.1</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.66</v>
+        <v>-26.21</v>
       </c>
       <c r="H17" t="n">
-        <v>-35.4067</v>
+        <v>-22.553997</v>
       </c>
       <c r="I17" t="n">
-        <v>112</v>
+        <v>419</v>
       </c>
       <c r="J17" t="n">
-        <v>682</v>
+        <v>1098</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7271755798339843</v>
+        <v>0.6042596337127687</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -5942,38 +5697,38 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00650000</t>
+          <t>TSLA221216P00800000</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>44763.57390046296</v>
+        <v>44763.80561342592</v>
       </c>
       <c r="C18" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>111.94</v>
       </c>
       <c r="E18" t="n">
-        <v>13.05</v>
+        <v>112.75</v>
       </c>
       <c r="F18" t="n">
-        <v>13.3</v>
+        <v>113.45</v>
       </c>
       <c r="G18" t="n">
-        <v>-8</v>
+        <v>-31.339996</v>
       </c>
       <c r="H18" t="n">
-        <v>-38.095238</v>
+        <v>-21.873253</v>
       </c>
       <c r="I18" t="n">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="J18" t="n">
-        <v>7197</v>
+        <v>2478</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7134428070068359</v>
+        <v>0.5890086265563965</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -5992,38 +5747,38 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00675000</t>
+          <t>TSLA221216P00810000</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>44763.57381944444</v>
+        <v>44763.83212962963</v>
       </c>
       <c r="C19" t="n">
-        <v>675</v>
+        <v>810</v>
       </c>
       <c r="D19" t="n">
-        <v>17.65</v>
+        <v>118.55</v>
       </c>
       <c r="E19" t="n">
-        <v>17.05</v>
+        <v>117</v>
       </c>
       <c r="F19" t="n">
-        <v>17.35</v>
+        <v>118.4</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.780001</v>
+        <v>-30.25</v>
       </c>
       <c r="H19" t="n">
-        <v>-35.654396</v>
+        <v>-20.329302</v>
       </c>
       <c r="I19" t="n">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="J19" t="n">
-        <v>719</v>
+        <v>327</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6879914013671876</v>
+        <v>0.5840190524291992</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -6042,41 +5797,41 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00692500</t>
+          <t>TSLA221216P00840000</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>44762.77302083333</v>
+        <v>44763.83259259259</v>
       </c>
       <c r="C20" t="n">
-        <v>692.5</v>
+        <v>840</v>
       </c>
       <c r="D20" t="n">
-        <v>33.2</v>
+        <v>133.32</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>132.5</v>
       </c>
       <c r="F20" t="n">
-        <v>21.25</v>
+        <v>134.15</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-45.079987</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-25.269053</v>
       </c>
       <c r="I20" t="n">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="J20" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6782258740234376</v>
+        <v>0.5744976632690429</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -6092,41 +5847,41 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TSLA220819P00700000</t>
+          <t>TSLA221216P00900000</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44763.57398148148</v>
+        <v>44763.82283564815</v>
       </c>
       <c r="C21" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="D21" t="n">
-        <v>22.71</v>
+        <v>167.51</v>
       </c>
       <c r="E21" t="n">
-        <v>22.6</v>
+        <v>167.25</v>
       </c>
       <c r="F21" t="n">
-        <v>22.95</v>
+        <v>169.35</v>
       </c>
       <c r="G21" t="n">
-        <v>-13.09</v>
+        <v>-44.490005</v>
       </c>
       <c r="H21" t="n">
-        <v>-36.564247</v>
+        <v>-20.985851</v>
       </c>
       <c r="I21" t="n">
-        <v>464</v>
+        <v>258</v>
       </c>
       <c r="J21" t="n">
-        <v>7048</v>
+        <v>1542</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6708101766967774</v>
+        <v>0.557789456329346</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -6134,406 +5889,6 @@
         </is>
       </c>
       <c r="N21" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00712500</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>44762.81986111111</v>
-      </c>
-      <c r="C22" t="n">
-        <v>712.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>393</v>
-      </c>
-      <c r="J22" t="n">
-        <v>355</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.6776460458374024</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00725000</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>44763.57068287037</v>
-      </c>
-      <c r="C23" t="n">
-        <v>725</v>
-      </c>
-      <c r="D23" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-16.259998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-36.181572</v>
-      </c>
-      <c r="I23" t="n">
-        <v>128</v>
-      </c>
-      <c r="J23" t="n">
-        <v>924</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.6701540553283694</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00730000</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>44763.5739699074</v>
-      </c>
-      <c r="C24" t="n">
-        <v>730</v>
-      </c>
-      <c r="D24" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-16.49</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-34.61377</v>
-      </c>
-      <c r="I24" t="n">
-        <v>107</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4239</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.6617770639038086</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00750000</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>44763.57436342593</v>
-      </c>
-      <c r="C25" t="n">
-        <v>750</v>
-      </c>
-      <c r="D25" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>38.15</v>
-      </c>
-      <c r="F25" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-32.22996</v>
-      </c>
-      <c r="I25" t="n">
-        <v>282</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7179</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6414220428466797</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00770000</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>44763.57363425926</v>
-      </c>
-      <c r="C26" t="n">
-        <v>770</v>
-      </c>
-      <c r="D26" t="n">
-        <v>48.13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-19.350002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-28.675165</v>
-      </c>
-      <c r="I26" t="n">
-        <v>106</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2578</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.6534763656616213</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00775000</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>44763.57324074074</v>
-      </c>
-      <c r="C27" t="n">
-        <v>775</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.45</v>
-      </c>
-      <c r="E27" t="n">
-        <v>49.65</v>
-      </c>
-      <c r="F27" t="n">
-        <v>50.15</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-29.192982</v>
-      </c>
-      <c r="I27" t="n">
-        <v>99</v>
-      </c>
-      <c r="J27" t="n">
-        <v>202</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.6423375610351563</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00800000</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>44763.57414351852</v>
-      </c>
-      <c r="C28" t="n">
-        <v>800</v>
-      </c>
-      <c r="D28" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-25.499996</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-29.243114</v>
-      </c>
-      <c r="I28" t="n">
-        <v>113</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3094</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.6241797836303712</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>TSLA220819P00900000</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>44763.57399305556</v>
-      </c>
-      <c r="C29" t="n">
-        <v>900</v>
-      </c>
-      <c r="D29" t="n">
-        <v>130.38</v>
-      </c>
-      <c r="E29" t="n">
-        <v>130.05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>132.05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-37.01999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-22.114689</v>
-      </c>
-      <c r="I29" t="n">
-        <v>97</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6391027301025392</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
